--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\CORP\HOME\C\SLCR81\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9485F55F-0DD7-47C7-A148-93FC0D749C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5DF0407-1481-4947-8D7E-58AE93F23543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12600" activeTab="1" xr2:uid="{B2E94A76-A788-48C2-A6C0-CD34A41F9054}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12600" xr2:uid="{B2E94A76-A788-48C2-A6C0-CD34A41F9054}"/>
   </bookViews>
   <sheets>
-    <sheet name="Info" sheetId="2" r:id="rId1"/>
-    <sheet name="Backlog" sheetId="1" r:id="rId2"/>
+    <sheet name="Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="User Stories" sheetId="4" r:id="rId2"/>
     <sheet name="Our Task" sheetId="3" r:id="rId3"/>
+    <sheet name="Info" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="104">
   <si>
     <t>All the countries in the world organised by largest population to smallest.</t>
   </si>
@@ -396,13 +397,246 @@
   </si>
   <si>
     <t>Optional requirement - leave till the end?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. As a head of user content department I want to access the information on the number of people who speak the following languages from greatest number to smallest, including the percentage of the world population, so that  I can support my organisation in making business decisions with regards to creating product content applicable for specific market. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7.  As a head of a continent/region/country division of marketing department I want to produce a report detailing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the total population of people, total population of people living in cities (including a %), and total population of people not living in cities (also including a %) in each continent/region/country</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  so that I can support my organisation in making strategical decision with regards to marketing certain products to the correct markets. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. As a marketing department employee I want to produce</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>showing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all the countries in the world/continent/region</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> organised by largest population to smallest so that I can support and influence business decisions of my organisation (for example when it comes to launching/testing a new product).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. As a marketing department employee I want to produce </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a report of a given top number of populated countries in the world/continent/region</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> so that I can support and influence business decisions of my organisation with regards to marketing strategies. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. As a marketing department employee I want to produce </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a report showing all the cities in the world/continent/region/country/district</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> organised by largest population to smallest so that I can support and influence business decisions of my organisation (for example when it comes to launching/testing a new product).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. As a marketing department employee I want to produce </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a report of a given top number of populated cities in the world/continent/region/country/district</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> so that I can support and influence business decisions of my organisation with regards to marketing strategies. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. As a marketing department employee I want to produce </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a report showing all the capital cities in the world/continent/region</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> organised by largest population to smallest so that I can support and influence business decisions of my organisation (for example when it comes to launching/testing a new product).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. As a marketing department employee I want to produce </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a report of a given top number of populated capital cities in the world/continent/region</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> so that I can support and influence business decisions of my organisation with regards to marketing strategies. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">8. As a head of marketing department I want to access the information on the total population of the world/ continent/region/cuntry/district/city so that I can support and influence business strategy of my organisation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Stories Split Into Git Hub Issues </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +670,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -506,7 +749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -521,6 +764,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,6 +1078,528 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328B092C-3B13-456F-8F29-D1CB5B4BA6C0}">
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>23</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>24</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>25</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>26</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>27</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>28</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>29</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>30</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>31</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>32</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C9F22A-2C1B-4023-BB3C-538635B8FB09}">
+  <dimension ref="B1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476CA074-6E1A-433E-94DA-134B37270249}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D005B37-F5E1-480E-8FA2-484F1A4E0BA1}">
   <dimension ref="A1:A28"/>
   <sheetViews>
@@ -976,460 +1742,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328B092C-3B13-456F-8F29-D1CB5B4BA6C0}">
-  <dimension ref="A1:C43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="88.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>18</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>19</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>20</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>21</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>22</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>23</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>24</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>25</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>26</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>27</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>28</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>29</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>30</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>31</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>32</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476CA074-6E1A-433E-94DA-134B37270249}">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="62.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>